--- a/NamesModel/Assets/Predicted_Names_Other_Male.xlsx
+++ b/NamesModel/Assets/Predicted_Names_Other_Male.xlsx
@@ -50028,301 +50028,301 @@
         <v>2022</v>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>119</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" t="n">
         <v>3</v>
       </c>
-      <c r="F64" t="n">
-        <v>4</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>55</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
         <v>3</v>
       </c>
-      <c r="K64" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q64" t="n">
         <v>4</v>
       </c>
       <c r="R64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S64" t="n">
+        <v>6</v>
+      </c>
+      <c r="T64" t="n">
         <v>3</v>
       </c>
-      <c r="T64" t="n">
-        <v>2</v>
-      </c>
       <c r="U64" t="n">
         <v>2</v>
       </c>
       <c r="V64" t="n">
+        <v>6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>8</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
         <v>3</v>
       </c>
-      <c r="W64" t="n">
+      <c r="AA64" t="n">
         <v>4</v>
       </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>5</v>
-      </c>
       <c r="AB64" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="n">
         <v>4</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>2</v>
       </c>
       <c r="AI64" t="n">
         <v>15</v>
       </c>
       <c r="AJ64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ64" t="n">
         <v>6</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AR64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV64" t="n">
         <v>1</v>
       </c>
-      <c r="AL64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM64" t="n">
+      <c r="AW64" t="n">
         <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>27</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
       </c>
       <c r="AX64" t="n">
         <v>7</v>
       </c>
       <c r="AY64" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE64" t="n">
         <v>2</v>
       </c>
       <c r="BF64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ64" t="n">
+        <v>34</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>16</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP64" t="n">
         <v>27</v>
       </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>15</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP64" t="n">
-        <v>16</v>
-      </c>
       <c r="BQ64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR64" t="n">
         <v>10</v>
       </c>
       <c r="BS64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BU64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV64" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BW64" t="n">
         <v>10</v>
       </c>
       <c r="BX64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>107</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB64" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC64" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD64" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE64" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG64" t="n">
+        <v>15</v>
+      </c>
+      <c r="CH64" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ64" t="n">
+        <v>179</v>
+      </c>
+      <c r="CK64" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL64" t="n">
+        <v>14</v>
+      </c>
+      <c r="CM64" t="n">
         <v>3</v>
       </c>
-      <c r="BY64" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ64" t="n">
-        <v>73</v>
-      </c>
-      <c r="CA64" t="n">
+      <c r="CN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO64" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP64" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ64" t="n">
         <v>4</v>
       </c>
-      <c r="CB64" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC64" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD64" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE64" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF64" t="n">
+      <c r="CR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS64" t="n">
         <v>1</v>
       </c>
-      <c r="CG64" t="n">
-        <v>13</v>
-      </c>
-      <c r="CH64" t="n">
+      <c r="CT64" t="n">
         <v>4</v>
       </c>
-      <c r="CI64" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ64" t="n">
-        <v>182</v>
-      </c>
-      <c r="CK64" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL64" t="n">
-        <v>21</v>
-      </c>
-      <c r="CM64" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO64" t="n">
-        <v>3</v>
-      </c>
-      <c r="CP64" t="n">
-        <v>2</v>
-      </c>
-      <c r="CQ64" t="n">
-        <v>6</v>
-      </c>
-      <c r="CR64" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS64" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT64" t="n">
-        <v>1</v>
-      </c>
       <c r="CU64" t="n">
         <v>0</v>
       </c>
       <c r="CV64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW64" t="n">
         <v>0</v>
@@ -50331,85 +50331,85 @@
         <v>1</v>
       </c>
       <c r="CY64" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ64" t="n">
         <v>1</v>
       </c>
-      <c r="CZ64" t="n">
-        <v>0</v>
-      </c>
       <c r="DA64" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="DB64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DC64" t="n">
         <v>1</v>
       </c>
       <c r="DD64" t="n">
+        <v>6</v>
+      </c>
+      <c r="DE64" t="n">
         <v>3</v>
       </c>
-      <c r="DE64" t="n">
+      <c r="DF64" t="n">
+        <v>7</v>
+      </c>
+      <c r="DG64" t="n">
+        <v>9</v>
+      </c>
+      <c r="DH64" t="n">
+        <v>8</v>
+      </c>
+      <c r="DI64" t="n">
+        <v>27</v>
+      </c>
+      <c r="DJ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK64" t="n">
         <v>1</v>
-      </c>
-      <c r="DF64" t="n">
-        <v>5</v>
-      </c>
-      <c r="DG64" t="n">
-        <v>14</v>
-      </c>
-      <c r="DH64" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI64" t="n">
-        <v>19</v>
-      </c>
-      <c r="DJ64" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK64" t="n">
-        <v>3</v>
       </c>
       <c r="DL64" t="n">
         <v>1</v>
       </c>
       <c r="DM64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="DN64" t="n">
         <v>3</v>
       </c>
       <c r="DO64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DP64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="DQ64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DR64" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="DS64" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="DT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU64" t="n">
         <v>1</v>
       </c>
-      <c r="DU64" t="n">
-        <v>0</v>
-      </c>
       <c r="DV64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DW64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DX64" t="n">
         <v>10</v>
       </c>
       <c r="DY64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ64" t="n">
         <v>2</v>
@@ -50421,121 +50421,121 @@
         <v>3</v>
       </c>
       <c r="EC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED64" t="n">
         <v>1</v>
       </c>
       <c r="EE64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EF64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EG64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EH64" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="EI64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ64" t="n">
         <v>0</v>
       </c>
       <c r="EK64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL64" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="EM64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EN64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EO64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EQ64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="ES64" t="n">
         <v>8</v>
       </c>
       <c r="ET64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU64" t="n">
         <v>28</v>
       </c>
       <c r="EV64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EW64" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="EX64" t="n">
         <v>0</v>
       </c>
       <c r="EY64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="EZ64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FA64" t="n">
         <v>2</v>
       </c>
       <c r="FB64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FC64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FD64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FE64" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="FF64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG64" t="n">
         <v>1</v>
       </c>
       <c r="FH64" t="n">
+        <v>2</v>
+      </c>
+      <c r="FI64" t="n">
         <v>1</v>
       </c>
-      <c r="FI64" t="n">
-        <v>0</v>
-      </c>
       <c r="FJ64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FK64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="FL64" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="FM64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FN64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FO64" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="FP64" t="n">
         <v>2</v>
@@ -50544,85 +50544,85 @@
         <v>9</v>
       </c>
       <c r="FR64" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="FS64" t="n">
         <v>1</v>
       </c>
       <c r="FT64" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="FU64" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="FV64" t="n">
         <v>2</v>
       </c>
       <c r="FW64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX64" t="n">
+        <v>6</v>
+      </c>
+      <c r="FY64" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ64" t="n">
+        <v>29</v>
+      </c>
+      <c r="GA64" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB64" t="n">
+        <v>6</v>
+      </c>
+      <c r="GC64" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD64" t="n">
         <v>4</v>
       </c>
-      <c r="FY64" t="n">
-        <v>2</v>
-      </c>
-      <c r="FZ64" t="n">
-        <v>15</v>
-      </c>
-      <c r="GA64" t="n">
+      <c r="GE64" t="n">
+        <v>27</v>
+      </c>
+      <c r="GF64" t="n">
+        <v>7</v>
+      </c>
+      <c r="GG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="GH64" t="n">
+        <v>13</v>
+      </c>
+      <c r="GI64" t="n">
+        <v>36</v>
+      </c>
+      <c r="GJ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="GK64" t="n">
+        <v>2</v>
+      </c>
+      <c r="GL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM64" t="n">
         <v>1</v>
       </c>
-      <c r="GB64" t="n">
+      <c r="GN64" t="n">
+        <v>2</v>
+      </c>
+      <c r="GO64" t="n">
         <v>8</v>
-      </c>
-      <c r="GC64" t="n">
-        <v>2</v>
-      </c>
-      <c r="GD64" t="n">
-        <v>3</v>
-      </c>
-      <c r="GE64" t="n">
-        <v>33</v>
-      </c>
-      <c r="GF64" t="n">
-        <v>5</v>
-      </c>
-      <c r="GG64" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH64" t="n">
-        <v>9</v>
-      </c>
-      <c r="GI64" t="n">
-        <v>24</v>
-      </c>
-      <c r="GJ64" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK64" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN64" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO64" t="n">
-        <v>7</v>
       </c>
       <c r="GP64" t="n">
         <v>1</v>
       </c>
       <c r="GQ64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GR64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS64" t="n">
         <v>0</v>
@@ -50631,16 +50631,16 @@
         <v>3</v>
       </c>
       <c r="GU64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GW64" t="n">
         <v>2</v>
       </c>
       <c r="GX64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GY64" t="n">
         <v>0</v>
@@ -50649,16 +50649,16 @@
         <v>2</v>
       </c>
       <c r="HA64" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB64" t="n">
         <v>3</v>
       </c>
-      <c r="HB64" t="n">
-        <v>1</v>
-      </c>
       <c r="HC64" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="HD64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="HE64" t="n">
         <v>0</v>
@@ -50667,70 +50667,70 @@
         <v>3</v>
       </c>
       <c r="HG64" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="HH64" t="n">
+        <v>24</v>
+      </c>
+      <c r="HI64" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ64" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK64" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL64" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR64" t="n">
         <v>8</v>
       </c>
-      <c r="HI64" t="n">
+      <c r="HS64" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU64" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW64" t="n">
         <v>3</v>
-      </c>
-      <c r="HJ64" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK64" t="n">
-        <v>5</v>
-      </c>
-      <c r="HL64" t="n">
-        <v>5</v>
-      </c>
-      <c r="HM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN64" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO64" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP64" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ64" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR64" t="n">
-        <v>7</v>
-      </c>
-      <c r="HS64" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU64" t="n">
-        <v>4</v>
-      </c>
-      <c r="HV64" t="n">
-        <v>2</v>
-      </c>
-      <c r="HW64" t="n">
-        <v>1</v>
       </c>
       <c r="HX64" t="n">
         <v>6</v>
       </c>
       <c r="HY64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="HZ64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IA64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="IB64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IC64" t="n">
         <v>0</v>
@@ -50739,55 +50739,55 @@
         <v>1</v>
       </c>
       <c r="IE64" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH64" t="n">
+        <v>19</v>
+      </c>
+      <c r="II64" t="n">
         <v>1</v>
       </c>
-      <c r="IF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG64" t="n">
+      <c r="IJ64" t="n">
+        <v>38</v>
+      </c>
+      <c r="IK64" t="n">
         <v>1</v>
       </c>
-      <c r="IH64" t="n">
-        <v>10</v>
-      </c>
-      <c r="II64" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ64" t="n">
-        <v>33</v>
-      </c>
-      <c r="IK64" t="n">
-        <v>2</v>
-      </c>
       <c r="IL64" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="IM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO64" t="n">
         <v>1</v>
       </c>
-      <c r="IN64" t="n">
-        <v>2</v>
-      </c>
-      <c r="IO64" t="n">
-        <v>3</v>
-      </c>
       <c r="IP64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ64" t="n">
         <v>1</v>
       </c>
       <c r="IR64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="IS64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="IT64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IU64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="IV64" t="n">
         <v>0</v>
@@ -50799,7 +50799,7 @@
         <v>2</v>
       </c>
       <c r="IY64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -50807,70 +50807,70 @@
         <v>2023</v>
       </c>
       <c r="B65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>118</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9</v>
+      </c>
+      <c r="S65" t="n">
+        <v>6</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>6</v>
+      </c>
+      <c r="W65" t="n">
         <v>8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>56</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3</v>
-      </c>
-      <c r="T65" t="n">
-        <v>2</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2</v>
-      </c>
-      <c r="V65" t="n">
-        <v>3</v>
-      </c>
-      <c r="W65" t="n">
-        <v>4</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -50879,73 +50879,73 @@
         <v>1</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN65" t="n">
         <v>5</v>
       </c>
-      <c r="AB65" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ65" t="n">
+      <c r="AO65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ65" t="n">
         <v>6</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AR65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV65" t="n">
         <v>1</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
       </c>
       <c r="AW65" t="n">
         <v>0</v>
@@ -50954,61 +50954,61 @@
         <v>7</v>
       </c>
       <c r="AY65" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE65" t="n">
         <v>2</v>
       </c>
       <c r="BF65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG65" t="n">
         <v>1</v>
       </c>
-      <c r="BG65" t="n">
-        <v>2</v>
-      </c>
       <c r="BH65" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ65" t="n">
+        <v>35</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>17</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP65" t="n">
         <v>27</v>
       </c>
-      <c r="BK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>16</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP65" t="n">
-        <v>17</v>
-      </c>
       <c r="BQ65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR65" t="n">
         <v>10</v>
@@ -51017,178 +51017,178 @@
         <v>2</v>
       </c>
       <c r="BT65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BU65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV65" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BW65" t="n">
         <v>10</v>
       </c>
       <c r="BX65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>106</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC65" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD65" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE65" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF65" t="n">
         <v>3</v>
       </c>
-      <c r="BY65" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ65" t="n">
-        <v>75</v>
-      </c>
-      <c r="CA65" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB65" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC65" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD65" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE65" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF65" t="n">
-        <v>1</v>
-      </c>
       <c r="CG65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CH65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI65" t="n">
         <v>1</v>
       </c>
       <c r="CJ65" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="CK65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL65" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="CM65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN65" t="n">
         <v>0</v>
       </c>
       <c r="CO65" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP65" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ65" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS65" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT65" t="n">
         <v>3</v>
       </c>
-      <c r="CP65" t="n">
-        <v>2</v>
-      </c>
-      <c r="CQ65" t="n">
+      <c r="CU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW65" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY65" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA65" t="n">
+        <v>14</v>
+      </c>
+      <c r="DB65" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC65" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD65" t="n">
         <v>6</v>
       </c>
-      <c r="CR65" t="n">
+      <c r="DE65" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF65" t="n">
+        <v>7</v>
+      </c>
+      <c r="DG65" t="n">
+        <v>9</v>
+      </c>
+      <c r="DH65" t="n">
+        <v>7</v>
+      </c>
+      <c r="DI65" t="n">
+        <v>27</v>
+      </c>
+      <c r="DJ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK65" t="n">
         <v>1</v>
-      </c>
-      <c r="CS65" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT65" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV65" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX65" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY65" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA65" t="n">
-        <v>9</v>
-      </c>
-      <c r="DB65" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC65" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD65" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE65" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF65" t="n">
-        <v>5</v>
-      </c>
-      <c r="DG65" t="n">
-        <v>14</v>
-      </c>
-      <c r="DH65" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI65" t="n">
-        <v>19</v>
-      </c>
-      <c r="DJ65" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK65" t="n">
-        <v>3</v>
       </c>
       <c r="DL65" t="n">
         <v>1</v>
       </c>
       <c r="DM65" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="DN65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DO65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DP65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="DQ65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DR65" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="DS65" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="DT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU65" t="n">
         <v>1</v>
       </c>
-      <c r="DU65" t="n">
-        <v>0</v>
-      </c>
       <c r="DV65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DW65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="DX65" t="n">
         <v>10</v>
       </c>
       <c r="DY65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ65" t="n">
         <v>2</v>
@@ -51206,16 +51206,16 @@
         <v>1</v>
       </c>
       <c r="EE65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EF65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EG65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EH65" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="EI65" t="n">
         <v>1</v>
@@ -51224,97 +51224,97 @@
         <v>0</v>
       </c>
       <c r="EK65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="EM65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EN65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EO65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EQ65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="ES65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU65" t="n">
         <v>28</v>
       </c>
       <c r="EV65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EW65" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="EX65" t="n">
         <v>0</v>
       </c>
       <c r="EY65" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="EZ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA65" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB65" t="n">
         <v>3</v>
       </c>
-      <c r="FA65" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB65" t="n">
-        <v>0</v>
-      </c>
       <c r="FC65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FD65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FE65" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="FF65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG65" t="n">
         <v>1</v>
       </c>
       <c r="FH65" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI65" t="n">
         <v>1</v>
       </c>
-      <c r="FI65" t="n">
-        <v>0</v>
-      </c>
       <c r="FJ65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FK65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="FL65" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="FM65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FN65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FO65" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="FP65" t="n">
         <v>2</v>
@@ -51323,16 +51323,16 @@
         <v>9</v>
       </c>
       <c r="FR65" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="FS65" t="n">
         <v>1</v>
       </c>
       <c r="FT65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="FU65" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="FV65" t="n">
         <v>2</v>
@@ -51341,46 +51341,46 @@
         <v>0</v>
       </c>
       <c r="FX65" t="n">
+        <v>6</v>
+      </c>
+      <c r="FY65" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ65" t="n">
+        <v>29</v>
+      </c>
+      <c r="GA65" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB65" t="n">
+        <v>6</v>
+      </c>
+      <c r="GC65" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD65" t="n">
         <v>4</v>
       </c>
-      <c r="FY65" t="n">
-        <v>2</v>
-      </c>
-      <c r="FZ65" t="n">
-        <v>15</v>
-      </c>
-      <c r="GA65" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB65" t="n">
-        <v>8</v>
-      </c>
-      <c r="GC65" t="n">
-        <v>2</v>
-      </c>
-      <c r="GD65" t="n">
-        <v>3</v>
-      </c>
       <c r="GE65" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="GF65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GG65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH65" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GI65" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="GJ65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GL65" t="n">
         <v>0</v>
@@ -51392,16 +51392,16 @@
         <v>2</v>
       </c>
       <c r="GO65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="GP65" t="n">
         <v>1</v>
       </c>
       <c r="GQ65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GR65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS65" t="n">
         <v>0</v>
@@ -51413,13 +51413,13 @@
         <v>0</v>
       </c>
       <c r="GV65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GW65" t="n">
         <v>2</v>
       </c>
       <c r="GX65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GY65" t="n">
         <v>0</v>
@@ -51428,16 +51428,16 @@
         <v>2</v>
       </c>
       <c r="HA65" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB65" t="n">
         <v>3</v>
       </c>
-      <c r="HB65" t="n">
-        <v>1</v>
-      </c>
       <c r="HC65" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="HD65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="HE65" t="n">
         <v>0</v>
@@ -51446,79 +51446,79 @@
         <v>3</v>
       </c>
       <c r="HG65" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="HH65" t="n">
+        <v>24</v>
+      </c>
+      <c r="HI65" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ65" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK65" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL65" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ65" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR65" t="n">
         <v>8</v>
       </c>
-      <c r="HI65" t="n">
+      <c r="HS65" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU65" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW65" t="n">
         <v>3</v>
-      </c>
-      <c r="HJ65" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK65" t="n">
-        <v>6</v>
-      </c>
-      <c r="HL65" t="n">
-        <v>5</v>
-      </c>
-      <c r="HM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN65" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO65" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP65" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ65" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR65" t="n">
-        <v>7</v>
-      </c>
-      <c r="HS65" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU65" t="n">
-        <v>4</v>
-      </c>
-      <c r="HV65" t="n">
-        <v>2</v>
-      </c>
-      <c r="HW65" t="n">
-        <v>1</v>
       </c>
       <c r="HX65" t="n">
         <v>6</v>
       </c>
       <c r="HY65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="HZ65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IA65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="IB65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IC65" t="n">
         <v>0</v>
       </c>
       <c r="ID65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IE65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IF65" t="n">
         <v>0</v>
@@ -51527,28 +51527,28 @@
         <v>1</v>
       </c>
       <c r="IH65" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="II65" t="n">
         <v>0</v>
       </c>
       <c r="IJ65" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="IK65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IL65" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="IM65" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO65" t="n">
         <v>1</v>
-      </c>
-      <c r="IN65" t="n">
-        <v>2</v>
-      </c>
-      <c r="IO65" t="n">
-        <v>3</v>
       </c>
       <c r="IP65" t="n">
         <v>1</v>
@@ -51557,19 +51557,19 @@
         <v>1</v>
       </c>
       <c r="IR65" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="IS65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="IT65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IU65" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="IV65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW65" t="n">
         <v>0</v>
@@ -51578,7 +51578,7 @@
         <v>2</v>
       </c>
       <c r="IY65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -51586,388 +51586,388 @@
         <v>2024</v>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>118</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>9</v>
+      </c>
+      <c r="S66" t="n">
+        <v>6</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>6</v>
+      </c>
+      <c r="W66" t="n">
+        <v>8</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
         <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>3</v>
-      </c>
-      <c r="T66" t="n">
-        <v>2</v>
-      </c>
-      <c r="U66" t="n">
-        <v>2</v>
-      </c>
-      <c r="V66" t="n">
-        <v>3</v>
-      </c>
-      <c r="W66" t="n">
-        <v>4</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>2</v>
       </c>
       <c r="Z66" t="n">
         <v>3</v>
       </c>
       <c r="AA66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN66" t="n">
         <v>5</v>
       </c>
-      <c r="AB66" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC66" t="n">
+      <c r="AO66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>36</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>17</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>30</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>105</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC66" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD66" t="n">
         <v>5</v>
       </c>
-      <c r="AD66" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH66" t="n">
+      <c r="CE66" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF66" t="n">
         <v>3</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>28</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>16</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>17</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>19</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>11</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>76</v>
-      </c>
-      <c r="CA66" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB66" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC66" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD66" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE66" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF66" t="n">
-        <v>1</v>
       </c>
       <c r="CG66" t="n">
         <v>14</v>
       </c>
       <c r="CH66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI66" t="n">
         <v>1</v>
       </c>
       <c r="CJ66" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="CK66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL66" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="CM66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN66" t="n">
         <v>0</v>
       </c>
       <c r="CO66" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP66" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ66" t="n">
         <v>4</v>
       </c>
-      <c r="CP66" t="n">
-        <v>2</v>
-      </c>
-      <c r="CQ66" t="n">
+      <c r="CR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS66" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT66" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW66" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY66" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ66" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA66" t="n">
+        <v>14</v>
+      </c>
+      <c r="DB66" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC66" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD66" t="n">
         <v>6</v>
       </c>
-      <c r="CR66" t="n">
+      <c r="DE66" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF66" t="n">
+        <v>7</v>
+      </c>
+      <c r="DG66" t="n">
+        <v>8</v>
+      </c>
+      <c r="DH66" t="n">
+        <v>7</v>
+      </c>
+      <c r="DI66" t="n">
+        <v>27</v>
+      </c>
+      <c r="DJ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK66" t="n">
         <v>1</v>
       </c>
-      <c r="CS66" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT66" t="n">
+      <c r="DL66" t="n">
         <v>1</v>
       </c>
-      <c r="CU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV66" t="n">
+      <c r="DM66" t="n">
+        <v>14</v>
+      </c>
+      <c r="DN66" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO66" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP66" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="DR66" t="n">
+        <v>33</v>
+      </c>
+      <c r="DS66" t="n">
+        <v>15</v>
+      </c>
+      <c r="DT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU66" t="n">
         <v>1</v>
       </c>
-      <c r="CW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX66" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY66" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA66" t="n">
+      <c r="DV66" t="n">
+        <v>5</v>
+      </c>
+      <c r="DW66" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX66" t="n">
         <v>9</v>
       </c>
-      <c r="DB66" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC66" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD66" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE66" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF66" t="n">
-        <v>5</v>
-      </c>
-      <c r="DG66" t="n">
-        <v>14</v>
-      </c>
-      <c r="DH66" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI66" t="n">
-        <v>19</v>
-      </c>
-      <c r="DJ66" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK66" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL66" t="n">
-        <v>2</v>
-      </c>
-      <c r="DM66" t="n">
-        <v>10</v>
-      </c>
-      <c r="DN66" t="n">
-        <v>3</v>
-      </c>
-      <c r="DO66" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP66" t="n">
-        <v>8</v>
-      </c>
-      <c r="DQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR66" t="n">
-        <v>30</v>
-      </c>
-      <c r="DS66" t="n">
-        <v>12</v>
-      </c>
-      <c r="DT66" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV66" t="n">
-        <v>2</v>
-      </c>
-      <c r="DW66" t="n">
-        <v>8</v>
-      </c>
-      <c r="DX66" t="n">
-        <v>10</v>
-      </c>
       <c r="DY66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ66" t="n">
         <v>2</v>
@@ -51985,16 +51985,16 @@
         <v>1</v>
       </c>
       <c r="EE66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EF66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EG66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EH66" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="EI66" t="n">
         <v>1</v>
@@ -52003,97 +52003,97 @@
         <v>0</v>
       </c>
       <c r="EK66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL66" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="EM66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EN66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EO66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EQ66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="ES66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="EV66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EW66" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="EX66" t="n">
         <v>0</v>
       </c>
       <c r="EY66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EZ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB66" t="n">
         <v>3</v>
       </c>
-      <c r="FA66" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB66" t="n">
-        <v>0</v>
-      </c>
       <c r="FC66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="FD66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FE66" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="FF66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG66" t="n">
         <v>1</v>
       </c>
       <c r="FH66" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI66" t="n">
         <v>1</v>
       </c>
-      <c r="FI66" t="n">
-        <v>0</v>
-      </c>
       <c r="FJ66" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK66" t="n">
+        <v>10</v>
+      </c>
+      <c r="FL66" t="n">
+        <v>74</v>
+      </c>
+      <c r="FM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN66" t="n">
         <v>3</v>
       </c>
-      <c r="FK66" t="n">
-        <v>5</v>
-      </c>
-      <c r="FL66" t="n">
-        <v>63</v>
-      </c>
-      <c r="FM66" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN66" t="n">
-        <v>1</v>
-      </c>
       <c r="FO66" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="FP66" t="n">
         <v>2</v>
@@ -52102,16 +52102,16 @@
         <v>9</v>
       </c>
       <c r="FR66" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="FS66" t="n">
         <v>1</v>
       </c>
       <c r="FT66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="FU66" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="FV66" t="n">
         <v>2</v>
@@ -52120,46 +52120,46 @@
         <v>0</v>
       </c>
       <c r="FX66" t="n">
+        <v>6</v>
+      </c>
+      <c r="FY66" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ66" t="n">
+        <v>28</v>
+      </c>
+      <c r="GA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB66" t="n">
+        <v>6</v>
+      </c>
+      <c r="GC66" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD66" t="n">
         <v>4</v>
       </c>
-      <c r="FY66" t="n">
-        <v>2</v>
-      </c>
-      <c r="FZ66" t="n">
-        <v>15</v>
-      </c>
-      <c r="GA66" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB66" t="n">
-        <v>8</v>
-      </c>
-      <c r="GC66" t="n">
-        <v>2</v>
-      </c>
-      <c r="GD66" t="n">
-        <v>3</v>
-      </c>
       <c r="GE66" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="GF66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GG66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH66" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GI66" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="GJ66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GL66" t="n">
         <v>0</v>
@@ -52171,16 +52171,16 @@
         <v>2</v>
       </c>
       <c r="GO66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="GP66" t="n">
         <v>1</v>
       </c>
       <c r="GQ66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GR66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS66" t="n">
         <v>0</v>
@@ -52192,13 +52192,13 @@
         <v>0</v>
       </c>
       <c r="GV66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GW66" t="n">
         <v>2</v>
       </c>
       <c r="GX66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GY66" t="n">
         <v>0</v>
@@ -52207,16 +52207,16 @@
         <v>2</v>
       </c>
       <c r="HA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB66" t="n">
         <v>3</v>
       </c>
-      <c r="HB66" t="n">
-        <v>1</v>
-      </c>
       <c r="HC66" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="HD66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="HE66" t="n">
         <v>0</v>
@@ -52225,67 +52225,67 @@
         <v>3</v>
       </c>
       <c r="HG66" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="HH66" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="HI66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HL66" t="n">
         <v>3</v>
       </c>
-      <c r="HJ66" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK66" t="n">
+      <c r="HM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ66" t="n">
         <v>6</v>
-      </c>
-      <c r="HL66" t="n">
-        <v>5</v>
-      </c>
-      <c r="HM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN66" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO66" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP66" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ66" t="n">
-        <v>3</v>
       </c>
       <c r="HR66" t="n">
         <v>7</v>
       </c>
       <c r="HS66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HT66" t="n">
         <v>0</v>
       </c>
       <c r="HU66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="HV66" t="n">
         <v>2</v>
       </c>
       <c r="HW66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HX66" t="n">
         <v>6</v>
       </c>
       <c r="HY66" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="HZ66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="IA66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="IB66" t="n">
         <v>3</v>
@@ -52294,10 +52294,10 @@
         <v>0</v>
       </c>
       <c r="ID66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IE66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IF66" t="n">
         <v>0</v>
@@ -52306,28 +52306,28 @@
         <v>1</v>
       </c>
       <c r="IH66" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="II66" t="n">
         <v>0</v>
       </c>
       <c r="IJ66" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="IK66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IL66" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="IM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO66" t="n">
         <v>1</v>
-      </c>
-      <c r="IN66" t="n">
-        <v>2</v>
-      </c>
-      <c r="IO66" t="n">
-        <v>3</v>
       </c>
       <c r="IP66" t="n">
         <v>1</v>
@@ -52336,28 +52336,28 @@
         <v>1</v>
       </c>
       <c r="IR66" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU66" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV66" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX66" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY66" t="n">
         <v>8</v>
-      </c>
-      <c r="IS66" t="n">
-        <v>2</v>
-      </c>
-      <c r="IT66" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU66" t="n">
-        <v>16</v>
-      </c>
-      <c r="IV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX66" t="n">
-        <v>2</v>
-      </c>
-      <c r="IY66" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -52365,76 +52365,76 @@
         <v>2025</v>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>118</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>9</v>
+      </c>
+      <c r="S67" t="n">
+        <v>6</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>6</v>
+      </c>
+      <c r="W67" t="n">
+        <v>8</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
         <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>58</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>4</v>
-      </c>
-      <c r="R67" t="n">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>3</v>
-      </c>
-      <c r="T67" t="n">
-        <v>2</v>
-      </c>
-      <c r="U67" t="n">
-        <v>2</v>
-      </c>
-      <c r="V67" t="n">
-        <v>3</v>
-      </c>
-      <c r="W67" t="n">
-        <v>4</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>2</v>
       </c>
       <c r="Z67" t="n">
         <v>3</v>
@@ -52443,310 +52443,310 @@
         <v>5</v>
       </c>
       <c r="AB67" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN67" t="n">
         <v>5</v>
       </c>
-      <c r="AD67" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH67" t="n">
+      <c r="AO67" t="n">
         <v>3</v>
       </c>
-      <c r="AI67" t="n">
+      <c r="AP67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY67" t="n">
         <v>16</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AZ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>36</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT67" t="n">
         <v>7</v>
       </c>
-      <c r="AK67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN67" t="n">
+      <c r="BU67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>31</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>105</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC67" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD67" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE67" t="n">
         <v>4</v>
       </c>
-      <c r="AO67" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP67" t="n">
+      <c r="CF67" t="n">
         <v>3</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>28</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>16</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>9</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP67" t="n">
-        <v>17</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU67" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>20</v>
-      </c>
-      <c r="BW67" t="n">
-        <v>11</v>
-      </c>
-      <c r="BX67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY67" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ67" t="n">
-        <v>78</v>
-      </c>
-      <c r="CA67" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB67" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC67" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD67" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE67" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF67" t="n">
-        <v>1</v>
       </c>
       <c r="CG67" t="n">
         <v>14</v>
       </c>
       <c r="CH67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI67" t="n">
         <v>1</v>
       </c>
       <c r="CJ67" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="CK67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL67" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="CM67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN67" t="n">
         <v>0</v>
       </c>
       <c r="CO67" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP67" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ67" t="n">
         <v>4</v>
       </c>
-      <c r="CP67" t="n">
-        <v>2</v>
-      </c>
-      <c r="CQ67" t="n">
+      <c r="CR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS67" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT67" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW67" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY67" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA67" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB67" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC67" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD67" t="n">
         <v>6</v>
       </c>
-      <c r="CR67" t="n">
+      <c r="DE67" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF67" t="n">
+        <v>7</v>
+      </c>
+      <c r="DG67" t="n">
+        <v>8</v>
+      </c>
+      <c r="DH67" t="n">
+        <v>7</v>
+      </c>
+      <c r="DI67" t="n">
+        <v>27</v>
+      </c>
+      <c r="DJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK67" t="n">
         <v>1</v>
       </c>
-      <c r="CS67" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT67" t="n">
+      <c r="DL67" t="n">
         <v>1</v>
       </c>
-      <c r="CU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV67" t="n">
+      <c r="DM67" t="n">
+        <v>14</v>
+      </c>
+      <c r="DN67" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO67" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP67" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="DR67" t="n">
+        <v>33</v>
+      </c>
+      <c r="DS67" t="n">
+        <v>15</v>
+      </c>
+      <c r="DT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU67" t="n">
         <v>1</v>
       </c>
-      <c r="CW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX67" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY67" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA67" t="n">
+      <c r="DV67" t="n">
+        <v>5</v>
+      </c>
+      <c r="DW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX67" t="n">
         <v>9</v>
       </c>
-      <c r="DB67" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC67" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD67" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE67" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF67" t="n">
-        <v>5</v>
-      </c>
-      <c r="DG67" t="n">
-        <v>14</v>
-      </c>
-      <c r="DH67" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI67" t="n">
-        <v>20</v>
-      </c>
-      <c r="DJ67" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK67" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL67" t="n">
-        <v>2</v>
-      </c>
-      <c r="DM67" t="n">
-        <v>10</v>
-      </c>
-      <c r="DN67" t="n">
-        <v>3</v>
-      </c>
-      <c r="DO67" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP67" t="n">
-        <v>8</v>
-      </c>
-      <c r="DQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR67" t="n">
-        <v>31</v>
-      </c>
-      <c r="DS67" t="n">
-        <v>12</v>
-      </c>
-      <c r="DT67" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV67" t="n">
-        <v>2</v>
-      </c>
-      <c r="DW67" t="n">
-        <v>8</v>
-      </c>
-      <c r="DX67" t="n">
-        <v>10</v>
-      </c>
       <c r="DY67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ67" t="n">
         <v>2</v>
@@ -52764,16 +52764,16 @@
         <v>1</v>
       </c>
       <c r="EE67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EF67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EG67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EH67" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="EI67" t="n">
         <v>1</v>
@@ -52782,97 +52782,97 @@
         <v>0</v>
       </c>
       <c r="EK67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL67" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="EM67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EN67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EO67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EQ67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="ES67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU67" t="n">
         <v>29</v>
       </c>
       <c r="EV67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EW67" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="EX67" t="n">
         <v>0</v>
       </c>
       <c r="EY67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EZ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB67" t="n">
         <v>3</v>
       </c>
-      <c r="FA67" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB67" t="n">
-        <v>1</v>
-      </c>
       <c r="FC67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="FD67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FE67" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="FF67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG67" t="n">
         <v>1</v>
       </c>
       <c r="FH67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ67" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK67" t="n">
+        <v>10</v>
+      </c>
+      <c r="FL67" t="n">
+        <v>74</v>
+      </c>
+      <c r="FM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN67" t="n">
         <v>3</v>
       </c>
-      <c r="FK67" t="n">
-        <v>6</v>
-      </c>
-      <c r="FL67" t="n">
-        <v>64</v>
-      </c>
-      <c r="FM67" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN67" t="n">
-        <v>1</v>
-      </c>
       <c r="FO67" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="FP67" t="n">
         <v>2</v>
@@ -52881,64 +52881,64 @@
         <v>9</v>
       </c>
       <c r="FR67" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="FS67" t="n">
         <v>1</v>
       </c>
       <c r="FT67" t="n">
+        <v>8</v>
+      </c>
+      <c r="FU67" t="n">
+        <v>43</v>
+      </c>
+      <c r="FV67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX67" t="n">
         <v>6</v>
       </c>
-      <c r="FU67" t="n">
-        <v>32</v>
-      </c>
-      <c r="FV67" t="n">
-        <v>2</v>
-      </c>
-      <c r="FW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX67" t="n">
+      <c r="FY67" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ67" t="n">
+        <v>28</v>
+      </c>
+      <c r="GA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB67" t="n">
+        <v>6</v>
+      </c>
+      <c r="GC67" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD67" t="n">
         <v>4</v>
       </c>
-      <c r="FY67" t="n">
-        <v>2</v>
-      </c>
-      <c r="FZ67" t="n">
-        <v>16</v>
-      </c>
-      <c r="GA67" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB67" t="n">
-        <v>8</v>
-      </c>
-      <c r="GC67" t="n">
-        <v>2</v>
-      </c>
-      <c r="GD67" t="n">
-        <v>3</v>
-      </c>
       <c r="GE67" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="GF67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GG67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH67" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GI67" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="GJ67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GL67" t="n">
         <v>0</v>
@@ -52950,16 +52950,16 @@
         <v>2</v>
       </c>
       <c r="GO67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="GP67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GQ67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GR67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS67" t="n">
         <v>0</v>
@@ -52971,13 +52971,13 @@
         <v>0</v>
       </c>
       <c r="GV67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GW67" t="n">
         <v>2</v>
       </c>
       <c r="GX67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GY67" t="n">
         <v>0</v>
@@ -52986,16 +52986,16 @@
         <v>2</v>
       </c>
       <c r="HA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB67" t="n">
         <v>3</v>
       </c>
-      <c r="HB67" t="n">
-        <v>1</v>
-      </c>
       <c r="HC67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="HD67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="HE67" t="n">
         <v>0</v>
@@ -53004,67 +53004,67 @@
         <v>3</v>
       </c>
       <c r="HG67" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="HH67" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="HI67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK67" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL67" t="n">
         <v>3</v>
       </c>
-      <c r="HJ67" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK67" t="n">
+      <c r="HM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ67" t="n">
         <v>6</v>
       </c>
-      <c r="HL67" t="n">
-        <v>5</v>
-      </c>
-      <c r="HM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN67" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO67" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP67" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ67" t="n">
+      <c r="HR67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW67" t="n">
         <v>3</v>
-      </c>
-      <c r="HR67" t="n">
-        <v>8</v>
-      </c>
-      <c r="HS67" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU67" t="n">
-        <v>4</v>
-      </c>
-      <c r="HV67" t="n">
-        <v>2</v>
-      </c>
-      <c r="HW67" t="n">
-        <v>1</v>
       </c>
       <c r="HX67" t="n">
         <v>6</v>
       </c>
       <c r="HY67" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="HZ67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="IA67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="IB67" t="n">
         <v>3</v>
@@ -53073,10 +53073,10 @@
         <v>0</v>
       </c>
       <c r="ID67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IE67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IF67" t="n">
         <v>0</v>
@@ -53085,28 +53085,28 @@
         <v>1</v>
       </c>
       <c r="IH67" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="II67" t="n">
         <v>0</v>
       </c>
       <c r="IJ67" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="IK67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IL67" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="IM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>4</v>
+      </c>
+      <c r="IO67" t="n">
         <v>1</v>
-      </c>
-      <c r="IN67" t="n">
-        <v>2</v>
-      </c>
-      <c r="IO67" t="n">
-        <v>3</v>
       </c>
       <c r="IP67" t="n">
         <v>1</v>
@@ -53115,28 +53115,28 @@
         <v>1</v>
       </c>
       <c r="IR67" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU67" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV67" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX67" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY67" t="n">
         <v>8</v>
-      </c>
-      <c r="IS67" t="n">
-        <v>2</v>
-      </c>
-      <c r="IT67" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU67" t="n">
-        <v>16</v>
-      </c>
-      <c r="IV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX67" t="n">
-        <v>2</v>
-      </c>
-      <c r="IY67" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -53144,76 +53144,76 @@
         <v>2026</v>
       </c>
       <c r="B68" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J68" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6</v>
+      </c>
+      <c r="L68" t="n">
         <v>3</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
         <v>3</v>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2</v>
-      </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="n">
         <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S68" t="n">
+        <v>6</v>
+      </c>
+      <c r="T68" t="n">
         <v>3</v>
       </c>
-      <c r="T68" t="n">
-        <v>2</v>
-      </c>
       <c r="U68" t="n">
         <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W68" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z68" t="n">
         <v>3</v>
@@ -53222,310 +53222,310 @@
         <v>5</v>
       </c>
       <c r="AB68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC68" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AD68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE68" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG68" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="AH68" t="n">
         <v>3</v>
       </c>
       <c r="AI68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY68" t="n">
         <v>16</v>
       </c>
-      <c r="AJ68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK68" t="n">
+      <c r="AZ68" t="n">
         <v>1</v>
       </c>
-      <c r="AL68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM68" t="n">
+      <c r="BA68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG68" t="n">
         <v>1</v>
       </c>
-      <c r="AN68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>2</v>
-      </c>
       <c r="BH68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ68" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BK68" t="n">
         <v>0</v>
       </c>
       <c r="BL68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM68" t="n">
         <v>17</v>
       </c>
       <c r="BN68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>26</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>31</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>104</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC68" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD68" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE68" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF68" t="n">
         <v>3</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>18</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>20</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>11</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>79</v>
-      </c>
-      <c r="CA68" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB68" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC68" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD68" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE68" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF68" t="n">
-        <v>1</v>
       </c>
       <c r="CG68" t="n">
         <v>14</v>
       </c>
       <c r="CH68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI68" t="n">
         <v>1</v>
       </c>
       <c r="CJ68" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="CK68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL68" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="CM68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN68" t="n">
         <v>0</v>
       </c>
       <c r="CO68" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP68" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ68" t="n">
         <v>4</v>
       </c>
-      <c r="CP68" t="n">
-        <v>2</v>
-      </c>
-      <c r="CQ68" t="n">
+      <c r="CR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS68" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT68" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW68" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY68" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA68" t="n">
+        <v>15</v>
+      </c>
+      <c r="DB68" t="n">
+        <v>4</v>
+      </c>
+      <c r="DC68" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD68" t="n">
         <v>6</v>
       </c>
-      <c r="CR68" t="n">
+      <c r="DE68" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF68" t="n">
+        <v>7</v>
+      </c>
+      <c r="DG68" t="n">
+        <v>8</v>
+      </c>
+      <c r="DH68" t="n">
+        <v>7</v>
+      </c>
+      <c r="DI68" t="n">
+        <v>26</v>
+      </c>
+      <c r="DJ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK68" t="n">
         <v>1</v>
       </c>
-      <c r="CS68" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT68" t="n">
+      <c r="DL68" t="n">
         <v>1</v>
       </c>
-      <c r="CU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV68" t="n">
+      <c r="DM68" t="n">
+        <v>14</v>
+      </c>
+      <c r="DN68" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO68" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP68" t="n">
+        <v>4</v>
+      </c>
+      <c r="DQ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="DR68" t="n">
+        <v>33</v>
+      </c>
+      <c r="DS68" t="n">
+        <v>15</v>
+      </c>
+      <c r="DT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU68" t="n">
         <v>1</v>
       </c>
-      <c r="CW68" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX68" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY68" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA68" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB68" t="n">
-        <v>3</v>
-      </c>
-      <c r="DC68" t="n">
-        <v>2</v>
-      </c>
-      <c r="DD68" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE68" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF68" t="n">
+      <c r="DV68" t="n">
         <v>5</v>
       </c>
-      <c r="DG68" t="n">
-        <v>15</v>
-      </c>
-      <c r="DH68" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI68" t="n">
-        <v>20</v>
-      </c>
-      <c r="DJ68" t="n">
-        <v>2</v>
-      </c>
-      <c r="DK68" t="n">
+      <c r="DW68" t="n">
         <v>4</v>
       </c>
-      <c r="DL68" t="n">
-        <v>2</v>
-      </c>
-      <c r="DM68" t="n">
-        <v>11</v>
-      </c>
-      <c r="DN68" t="n">
-        <v>3</v>
-      </c>
-      <c r="DO68" t="n">
-        <v>2</v>
-      </c>
-      <c r="DP68" t="n">
-        <v>8</v>
-      </c>
-      <c r="DQ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR68" t="n">
-        <v>31</v>
-      </c>
-      <c r="DS68" t="n">
-        <v>12</v>
-      </c>
-      <c r="DT68" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV68" t="n">
-        <v>2</v>
-      </c>
-      <c r="DW68" t="n">
-        <v>8</v>
-      </c>
       <c r="DX68" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="DY68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ68" t="n">
         <v>2</v>
@@ -53543,16 +53543,16 @@
         <v>1</v>
       </c>
       <c r="EE68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EF68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EG68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EH68" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="EI68" t="n">
         <v>1</v>
@@ -53561,136 +53561,136 @@
         <v>0</v>
       </c>
       <c r="EK68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL68" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="EM68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EN68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EO68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EQ68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="ES68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EV68" t="n">
         <v>3</v>
       </c>
       <c r="EW68" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="EX68" t="n">
         <v>0</v>
       </c>
       <c r="EY68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EZ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA68" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB68" t="n">
         <v>3</v>
       </c>
-      <c r="FA68" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB68" t="n">
-        <v>1</v>
-      </c>
       <c r="FC68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="FD68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FE68" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="FF68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG68" t="n">
         <v>1</v>
       </c>
       <c r="FH68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FI68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ68" t="n">
+        <v>4</v>
+      </c>
+      <c r="FK68" t="n">
+        <v>10</v>
+      </c>
+      <c r="FL68" t="n">
+        <v>74</v>
+      </c>
+      <c r="FM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN68" t="n">
         <v>3</v>
       </c>
-      <c r="FK68" t="n">
-        <v>6</v>
-      </c>
-      <c r="FL68" t="n">
-        <v>65</v>
-      </c>
-      <c r="FM68" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN68" t="n">
-        <v>1</v>
-      </c>
       <c r="FO68" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="FP68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FQ68" t="n">
         <v>9</v>
       </c>
       <c r="FR68" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="FS68" t="n">
         <v>1</v>
       </c>
       <c r="FT68" t="n">
+        <v>8</v>
+      </c>
+      <c r="FU68" t="n">
+        <v>43</v>
+      </c>
+      <c r="FV68" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX68" t="n">
         <v>6</v>
       </c>
-      <c r="FU68" t="n">
-        <v>33</v>
-      </c>
-      <c r="FV68" t="n">
-        <v>2</v>
-      </c>
-      <c r="FW68" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX68" t="n">
-        <v>4</v>
-      </c>
       <c r="FY68" t="n">
         <v>2</v>
       </c>
       <c r="FZ68" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="GA68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GB68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="GC68" t="n">
         <v>2</v>
@@ -53699,25 +53699,25 @@
         <v>3</v>
       </c>
       <c r="GE68" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="GF68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GG68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="GI68" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="GJ68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GL68" t="n">
         <v>0</v>
@@ -53729,16 +53729,16 @@
         <v>2</v>
       </c>
       <c r="GO68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GP68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GQ68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GR68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GS68" t="n">
         <v>0</v>
@@ -53750,13 +53750,13 @@
         <v>0</v>
       </c>
       <c r="GV68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GW68" t="n">
         <v>2</v>
       </c>
       <c r="GX68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GY68" t="n">
         <v>0</v>
@@ -53765,16 +53765,16 @@
         <v>2</v>
       </c>
       <c r="HA68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB68" t="n">
         <v>3</v>
       </c>
-      <c r="HB68" t="n">
-        <v>1</v>
-      </c>
       <c r="HC68" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="HD68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="HE68" t="n">
         <v>0</v>
@@ -53783,139 +53783,139 @@
         <v>3</v>
       </c>
       <c r="HG68" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="HH68" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="HI68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK68" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL68" t="n">
         <v>3</v>
       </c>
-      <c r="HJ68" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK68" t="n">
+      <c r="HM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ68" t="n">
         <v>6</v>
       </c>
-      <c r="HL68" t="n">
-        <v>5</v>
-      </c>
-      <c r="HM68" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN68" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO68" t="n">
+      <c r="HR68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW68" t="n">
         <v>3</v>
-      </c>
-      <c r="HP68" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ68" t="n">
-        <v>3</v>
-      </c>
-      <c r="HR68" t="n">
-        <v>8</v>
-      </c>
-      <c r="HS68" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT68" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU68" t="n">
-        <v>4</v>
-      </c>
-      <c r="HV68" t="n">
-        <v>2</v>
-      </c>
-      <c r="HW68" t="n">
-        <v>1</v>
       </c>
       <c r="HX68" t="n">
         <v>6</v>
       </c>
       <c r="HY68" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="HZ68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="IA68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="IB68" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID68" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE68" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG68" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH68" t="n">
+        <v>20</v>
+      </c>
+      <c r="II68" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ68" t="n">
+        <v>38</v>
+      </c>
+      <c r="IK68" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>14</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN68" t="n">
         <v>4</v>
       </c>
-      <c r="IC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID68" t="n">
+      <c r="IO68" t="n">
         <v>1</v>
       </c>
-      <c r="IE68" t="n">
+      <c r="IP68" t="n">
         <v>1</v>
-      </c>
-      <c r="IF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG68" t="n">
-        <v>2</v>
-      </c>
-      <c r="IH68" t="n">
-        <v>11</v>
-      </c>
-      <c r="II68" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ68" t="n">
-        <v>36</v>
-      </c>
-      <c r="IK68" t="n">
-        <v>2</v>
-      </c>
-      <c r="IL68" t="n">
-        <v>12</v>
-      </c>
-      <c r="IM68" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN68" t="n">
-        <v>2</v>
-      </c>
-      <c r="IO68" t="n">
-        <v>3</v>
-      </c>
-      <c r="IP68" t="n">
-        <v>2</v>
       </c>
       <c r="IQ68" t="n">
         <v>1</v>
       </c>
       <c r="IR68" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU68" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV68" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX68" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY68" t="n">
         <v>8</v>
-      </c>
-      <c r="IS68" t="n">
-        <v>2</v>
-      </c>
-      <c r="IT68" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU68" t="n">
-        <v>16</v>
-      </c>
-      <c r="IV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW68" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX68" t="n">
-        <v>2</v>
-      </c>
-      <c r="IY68" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
